--- a/data/metadata/Informe-05-050105-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050105-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>sector-codigo</t>
   </si>
@@ -52,10 +52,13 @@
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-dimension:codcom</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sector-descripcion</t>
+    <t>iaest-measure:codcom</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector-descripcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
@@ -70,19 +73,7 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-codcom.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sector-descripcion.xlsx</t>
   </si>
 </sst>
 </file>
@@ -197,7 +188,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -205,13 +196,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -226,7 +217,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -234,13 +225,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -252,18 +243,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050105-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050105-A-TC-TP.xlsx
@@ -11,63 +11,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
-  <si>
-    <t>sector-codigo</t>
-  </si>
-  <si>
-    <t>cuentas-cotizacion-con-trabajadores</t>
-  </si>
-  <si>
-    <t>territorio</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>codcom</t>
-  </si>
-  <si>
-    <t>direccion-provincial-codigo</t>
-  </si>
-  <si>
-    <t>sector-descripcion</t>
-  </si>
-  <si>
-    <t>direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+  <si>
+    <t>Territorio:</t>
+  </si>
+  <si>
+    <t>Sector descripción</t>
+  </si>
+  <si>
+    <t>Sector código</t>
+  </si>
+  <si>
+    <t>Codcom</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Dirección provincial nombre</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>Cuentas cotización con trabajadores</t>
+  </si>
+  <si>
+    <t>Dirección provincial (código)</t>
+  </si>
+  <si>
+    <t>iaest-measure:territorio</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector-descripcion</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:codcom</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:mes-y-ano</t>
+  </si>
+  <si>
     <t>iaest-measure:cuentas-cotizacion-con-trabajadores</t>
   </si>
   <si>
-    <t>iaest-measure:territorio</t>
-  </si>
-  <si>
-    <t>iaest-measure:mes-y-ano</t>
-  </si>
-  <si>
-    <t>iaest-measure:codcom</t>
-  </si>
-  <si>
-    <t>iaest-measure:sector-descripcion</t>
-  </si>
-  <si>
-    <t>iaest-measure:direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -179,36 +182,36 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -217,36 +220,36 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
